--- a/backend/pages/excel/excel-certificate-008.xlsx
+++ b/backend/pages/excel/excel-certificate-008.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\certificate\app-certificate\file\8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC9C290-13C7-4152-8EC1-A871CFAEC819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719BD522-C2FF-4F60-95FE-A4B44DE00A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30B71CBD-2B3C-4293-B258-3ACE6F79B6E0}"/>
   </bookViews>
@@ -50,25 +50,25 @@
     <t>นายจามร เพ็งสวย</t>
   </si>
   <si>
-    <t>สาขาวิชา</t>
-  </si>
-  <si>
-    <t>วิทยาการคอมพิวเตอร์</t>
-  </si>
-  <si>
-    <t>ระดับผลสอบ</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>งานใส่ ปีต่อ ท้ายด้วยครับ</t>
-  </si>
-  <si>
-    <t>การทดสอบสมรรถนะและทักษะที่จำเป็นสำหรับบัณฑิตด้านวิทยาศาสตร์และเทคโนโลยี ปี 2566</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 ธันวาคม 2566</t>
+    <t>award</t>
+  </si>
+  <si>
+    <t>ได้เข้าร่วม</t>
+  </si>
+  <si>
+    <t>กิจกรรม</t>
+  </si>
+  <si>
+    <t>งาน</t>
+  </si>
+  <si>
+    <t>SCI KMITL OPEN HOUSE 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 ธันวาคม 2566</t>
+  </si>
+  <si>
+    <t>การใช้กราฟใน Google sheet เพื่อฝึกบริการจัดการเวลา</t>
   </si>
 </sst>
 </file>
@@ -165,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -311,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -472,7 +472,7 @@
     <col min="1" max="1" width="2.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="107.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
